--- a/biology/Zoologie/Cyrtodactylus_intermedius/Cyrtodactylus_intermedius.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_intermedius/Cyrtodactylus_intermedius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus intermedius est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus intermedius est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Viêt Nam, au Cambodge et en Thaïlande dans la province de Chanthaburi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Viêt Nam, au Cambodge et en Thaïlande dans la province de Chanthaburi.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne. Il est assez élancé, le corps et la queue sont fins et allongés, et les pattes sont relativement fines. La tête est triangulaire. La couleur de base est le marron clair tirant parfois sur le vert. 
 Le corps est parcouru de bandes transversales alternativement de la couleur de base et de couleur brun sombre, avec une fine ligne claire entre chaque bande. Les bandes marron clair se réduisent et deviennent plus claires sur la queue. La première bande sombre démarre sur la nuque et revient sur la tête au niveau des yeux et des narines. Le dessous du corps est beige.
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1917 : Descriptions of new reptiles and a new batrachian from Siam. The journal of the Natural History Society of Siam, vol. 2, p. 221-225 (texte intégral).</t>
         </is>
